--- a/data/organisation_alpha.xlsx
+++ b/data/organisation_alpha.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiendcu/OneDrive/Projects/mt5000/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8450044b23c22788/Projects/mt5000/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2DF9D7E-076D-E742-BFE8-36A15B649338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{E2DF9D7E-076D-E742-BFE8-36A15B649338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09418AC9-AE85-0F47-A396-06D6E4FF5E3E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="20120" windowHeight="8000"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="20120" windowHeight="8000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employee_d&amp;d_excerpt" sheetId="1" r:id="rId1"/>
     <sheet name="salary_2017" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2456,7 +2447,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3315,11 +3306,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection sqref="A1:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4511,7 +4502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B701"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/organisation_alpha.xlsx
+++ b/data/organisation_alpha.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8450044b23c22788/Projects/mt5000/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E2DF9D7E-076D-E742-BFE8-36A15B649338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09418AC9-AE85-0F47-A396-06D6E4FF5E3E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{E2DF9D7E-076D-E742-BFE8-36A15B649338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6900FF3D-2DC5-5941-9AAA-FCF70975484F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="20120" windowHeight="8000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="employee_d&amp;d_excerpt" sheetId="1" r:id="rId1"/>
+    <sheet name="list_employees_2020" sheetId="1" r:id="rId1"/>
     <sheet name="salary_2017" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
